--- a/biology/Botanique/Cirse_des_marais/Cirse_des_marais.xlsx
+++ b/biology/Botanique/Cirse_des_marais/Cirse_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cirsium palustre
 Le cirse des marais (Cirsium palustre), également appelé bâton-du-diable, est une espèce de plante à fleurs appartenant au genre Cirsium et à la famille des Astéracées (ou Composées). C'est une bisannuelle assez grande, poussant notamment dans les prairies humides.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante à tige érigée, ailée (ailes épineuses du bas au sommet de la tige). Longues feuilles étroites très épineuses, souvent inclinées vers le sol, devenant des lanières au sommet de la tige. capitules en grappes très denses, à fleurons pourpres. Bractées de l'involucre érigées, terminées par une pointe noire peu épineuse. Feuillage caduc.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 Type d'inflorescence : racème de capitules
